--- a/dispatch.xlsx
+++ b/dispatch.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="1989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="2034">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -5941,6 +5941,21 @@
     <t xml:space="preserve">上庭裡某家族想要測試他們最近更新的保全系統，透過私人關係找到了管理局。</t>
   </si>
   <si>
+    <t xml:space="preserve">Gekkabijin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲツライコウ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">월하미인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">昙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曇</t>
+  </si>
+  <si>
     <t xml:space="preserve">Field Rescue</t>
   </si>
   <si>
@@ -12451,6 +12466,320 @@
   </si>
   <si>
     <t xml:space="preserve">新城某娛樂公司最新推出的蒙面戀綜以「一句話，讓你心動」為賣點，紅極一時，某兩名自恃擅長花言巧語的禁閉者主動提出欲參加新一輪海選。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relocation Negotiator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引っ越しの説得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이주 권유</t>
+  </si>
+  <si>
+    <t xml:space="preserve">劝导移居</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勸導移居</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While patrolling around DisSea, a patrol discovers a temporary shelter built by an elderly man. Due to his superstitious beliefs, the team has difficulty communicating with him. Assistance from someone familiar with local religious customs is urgently required to persuade him to move.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最近、関係部門に属するパトロール隊が内海付近を巡回中、ある老人が仮住まいを建てているのを偶然発見した。この老人は迷信を信じており、隊員では意思疎通を図れなかったため、現地の祭祀文化に詳しい人物の協力を得て、引っ越しさせる必要がある。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">최근 관련 부문 소속 순찰대가 디스씨 주변을 순찰하던 중 우연히 한 노인이 세운 임시 거처를 발견했다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">하지만 노인은 미신을 굳게 믿어 정상적인 의사소통이 불가능했다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">노인이 이주하게끔 설득하기 위해서는 현지 제사 문화를 잘 아는 사람이 급히 필요하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">近日，有关部门下属巡逻队于内海周边巡查时，意外发现一名老人在此搭建了临时居所。因其思想迷信，队员难以沟通，急需一名熟悉当地祭祀文化者协助劝说其移居。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">近日，有關部門下屬巡邏隊於內海周邊巡查時，意外發現一名老人在此搭建了臨時居所。因其思想迷信，隊員難以溝通，急需一名熟悉當地祭祀文化者協助勸說其移居。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hestia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヘスティア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">헤스티아</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赫斯提亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赫斯提亞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビデオディスクの選別</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비디오디스크 판별</t>
+  </si>
+  <si>
+    <t xml:space="preserve">影碟甄别</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DVD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">甄別</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The Public Security Bureau receives a tip-off that a criminal group is circulating illegal content in the form of vintage discs. Assistance from an enthusiast with extensive knowledge is required to help identify them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治安局は、ある犯罪組織が大量の違法コンテンツをレトロなビデオディスクに偽装して市場に流通させているとの密告を受けた。それらを特定するため、豊富な知識を持つ愛好家を派遣する必要がある。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">치안국은 한 범죄 집단이 대량의 불법 콘텐츠를 중고 비디오디스크로 포장해 시중에 유통했다는 정보를 입수했다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">관련 분야에 대해 광범위한 이해가 있는 애호가를 파견해 판별을 도와야 한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">治安局接到线报，某犯罪集团将大量违法内容伪装成复古影碟于市面流通，需派出一名涉猎广泛的相关爱好者协助辨别。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">治安局接到線報，某犯罪集團將大量違法內容偽裝成復古</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DVD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">於市面流通，需派出一名涉獵廣泛的相關愛好者協助辨別。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ジェイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">简</t>
+  </si>
+  <si>
+    <t xml:space="preserve">簡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Heist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大規模銀行強盗事件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">은행 강도 사건</t>
+  </si>
+  <si>
+    <t xml:space="preserve">银行大劫案</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀行大劫案</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A major robbery happened at an Eastside bank. The suspect's M.O. highly resembles that of a serial robber once notorious in the city. A copycat crime is suspected. Assistance from a suitable operative is required to solve the case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最近、ニューシティ銀行で大規模な強盗事件が発生した。容疑者の犯行パターンは過去に注目を集めた連続強盗事件と酷似しており、模倣犯の疑いがあるため、関係者を派遣して捜査協力する必要がある。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">최근 신성 은행에서 대형 강도 사건이 발생했다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">용의자의 범행 수법이 과거 화제 되었던 연쇄 강도 사건과 매우 유사했다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">모방범죄로 의심되기 때문에 관련 인원을 파견해 수사를 진행해야 한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">新城银行近期出现特大抢劫案件，嫌疑人作案风格与昔日备受关注的连环劫匪高度相似，疑为模仿犯罪，需要派出相关人员协助侦破。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新城銀行近期出現特大搶劫案件，嫌疑人犯案風格與昔日備受關注的連環劫匪高度相似，疑為模仿犯罪，需要派出相關人員協助偵破。</t>
   </si>
 </sst>
 </file>
@@ -12733,16 +13062,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH142"/>
+  <dimension ref="A1:AH145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M104" activeCellId="0" sqref="M104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="57.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="77.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19134,6 +19462,21 @@
       <c r="L69" s="1" t="s">
         <v>1047</v>
       </c>
+      <c r="M69" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>1052</v>
+      </c>
       <c r="W69" s="0" t="s">
         <v>188</v>
       </c>
@@ -19179,49 +19522,49 @@
         <v>53</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="W70" s="0" t="s">
         <v>207</v>
@@ -19268,64 +19611,64 @@
         <v>72</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M71" s="0" t="s">
         <v>1063</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="N71" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="O71" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H71" s="0" t="s">
+      <c r="P71" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="M71" s="0" t="s">
-        <v>1058</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>1061</v>
-      </c>
       <c r="Q71" s="1" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="R71" s="0" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="W71" s="0" t="s">
         <v>207</v>
@@ -19372,49 +19715,49 @@
         <v>34</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="W72" s="0" t="s">
         <v>255</v>
@@ -19461,49 +19804,49 @@
         <v>53</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="W73" s="0" t="s">
         <v>274</v>
@@ -19550,64 +19893,64 @@
         <v>72</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="R74" s="0" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="W74" s="0" t="s">
         <v>274</v>
@@ -19654,49 +19997,49 @@
         <v>34</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="W75" s="0" t="s">
         <v>345</v>
@@ -19743,49 +20086,49 @@
         <v>53</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>1123</v>
+        <v>1128</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>1128</v>
+        <v>1133</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>1131</v>
+        <v>1136</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>1132</v>
+        <v>1137</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>1136</v>
+        <v>1141</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1136</v>
+        <v>1141</v>
       </c>
       <c r="W76" s="0" t="s">
         <v>345</v>
@@ -19832,49 +20175,49 @@
         <v>34</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M77" s="0" t="s">
         <v>1138</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="N77" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="P77" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="H77" s="0" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="M77" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>1136</v>
-      </c>
       <c r="Q77" s="1" t="s">
-        <v>1136</v>
+        <v>1141</v>
       </c>
       <c r="W77" s="0" t="s">
         <v>780</v>
@@ -19921,49 +20264,49 @@
         <v>53</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>1152</v>
+        <v>1157</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="W78" s="0" t="s">
         <v>780</v>
@@ -20010,49 +20353,49 @@
         <v>86</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1159</v>
+        <v>1164</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>1162</v>
+        <v>1167</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>1163</v>
+        <v>1168</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>1167</v>
+        <v>1172</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>1168</v>
+        <v>1173</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="W79" s="0" t="s">
         <v>101</v>
@@ -20099,49 +20442,49 @@
         <v>53</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>1171</v>
+        <v>1176</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1174</v>
+        <v>1179</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1174</v>
+        <v>1179</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>1175</v>
+        <v>1180</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="W80" s="0" t="s">
         <v>67</v>
@@ -20188,64 +20531,64 @@
         <v>72</v>
       </c>
       <c r="C81" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M81" s="0" t="s">
         <v>1185</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="O81" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="P81" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="Q81" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="H81" s="0" t="s">
-        <v>1190</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="M81" s="0" t="s">
-        <v>1180</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>1184</v>
-      </c>
       <c r="R81" s="0" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="W81" s="0" t="s">
         <v>67</v>
@@ -20292,49 +20635,49 @@
         <v>86</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>1201</v>
+        <v>1206</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="W82" s="0" t="s">
         <v>171</v>
@@ -20381,49 +20724,49 @@
         <v>53</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="W83" s="0" t="s">
         <v>137</v>
@@ -20470,49 +20813,49 @@
         <v>72</v>
       </c>
       <c r="C84" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="M84" s="0" t="s">
         <v>1224</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="N84" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="O84" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="P84" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="Q84" s="1" t="s">
         <v>1228</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="M84" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>1223</v>
       </c>
       <c r="R84" s="0" t="s">
         <v>64</v>
@@ -20574,49 +20917,49 @@
         <v>86</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1238</v>
+        <v>1243</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>1241</v>
+        <v>1246</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="W85" s="0" t="s">
         <v>237</v>
@@ -20663,49 +21006,49 @@
         <v>53</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>1256</v>
+        <v>1261</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>1259</v>
+        <v>1264</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>1260</v>
+        <v>1265</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="W86" s="0" t="s">
         <v>207</v>
@@ -20752,49 +21095,49 @@
         <v>72</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M87" s="0" t="s">
         <v>1263</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="N87" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="O87" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="P87" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="H87" s="0" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="M87" s="0" t="s">
-        <v>1258</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>1261</v>
-      </c>
       <c r="Q87" s="1" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="R87" s="0" t="s">
         <v>490</v>
@@ -20856,49 +21199,49 @@
         <v>86</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>1272</v>
+        <v>1277</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1273</v>
+        <v>1278</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1276</v>
+        <v>1281</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>1278</v>
+        <v>1283</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>1281</v>
+        <v>1286</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>1283</v>
+        <v>1288</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
       <c r="W88" s="0" t="s">
         <v>307</v>
@@ -20945,49 +21288,49 @@
         <v>53</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>1287</v>
+        <v>1292</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1289</v>
+        <v>1294</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1290</v>
+        <v>1295</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>1297</v>
+        <v>1302</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="W89" s="0" t="s">
         <v>345</v>
@@ -21034,49 +21377,49 @@
         <v>72</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>1301</v>
+        <v>1306</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M90" s="0" t="s">
         <v>1302</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="N90" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="O90" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="P90" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="H90" s="0" t="s">
-        <v>1306</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="M90" s="0" t="s">
-        <v>1297</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>1300</v>
-      </c>
       <c r="Q90" s="1" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="R90" s="0" t="s">
         <v>410</v>
@@ -21138,49 +21481,49 @@
         <v>86</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>1311</v>
+        <v>1316</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1312</v>
+        <v>1317</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1313</v>
+        <v>1318</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1314</v>
+        <v>1319</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>1318</v>
+        <v>1323</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>1320</v>
+        <v>1325</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>1322</v>
+        <v>1327</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>1323</v>
+        <v>1328</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>1324</v>
+        <v>1329</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>1325</v>
+        <v>1330</v>
       </c>
       <c r="W91" s="0" t="s">
         <v>377</v>
@@ -21227,49 +21570,49 @@
         <v>86</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>1326</v>
+        <v>1331</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1327</v>
+        <v>1332</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1329</v>
+        <v>1334</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>1331</v>
+        <v>1336</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1332</v>
+        <v>1337</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>1333</v>
+        <v>1338</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>1334</v>
+        <v>1339</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>1335</v>
+        <v>1340</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>1336</v>
+        <v>1341</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="W92" s="0" t="s">
         <v>509</v>
@@ -21316,49 +21659,49 @@
         <v>53</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>1341</v>
+        <v>1346</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1345</v>
+        <v>1350</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>1347</v>
+        <v>1352</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>1350</v>
+        <v>1355</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>1351</v>
+        <v>1356</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>1353</v>
+        <v>1358</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>1354</v>
+        <v>1359</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>1355</v>
+        <v>1360</v>
       </c>
       <c r="W93" s="0" t="s">
         <v>475</v>
@@ -21405,49 +21748,49 @@
         <v>72</v>
       </c>
       <c r="C94" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="M94" s="0" t="s">
         <v>1356</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="N94" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="O94" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="P94" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="Q94" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="H94" s="0" t="s">
-        <v>1361</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="M94" s="0" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>1355</v>
       </c>
       <c r="R94" s="0" t="s">
         <v>951</v>
@@ -21509,64 +21852,64 @@
         <v>86</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1367</v>
+        <v>1372</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1368</v>
+        <v>1373</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1369</v>
+        <v>1374</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1370</v>
+        <v>1375</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>1371</v>
+        <v>1376</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>1372</v>
+        <v>1377</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>1373</v>
+        <v>1378</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>1377</v>
+        <v>1382</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="W95" s="0" t="s">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="AB95" s="0" t="s">
         <v>52</v>
@@ -21598,49 +21941,49 @@
         <v>53</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1387</v>
+        <v>1392</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>1393</v>
+        <v>1398</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>1396</v>
+        <v>1401</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>1397</v>
+        <v>1402</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="W96" s="0" t="s">
         <v>703</v>
@@ -21687,49 +22030,49 @@
         <v>72</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="M97" s="0" t="s">
         <v>1401</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="N97" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="O97" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="P97" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="H97" s="0" t="s">
-        <v>1405</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>1407</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="M97" s="0" t="s">
-        <v>1396</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>1397</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>1399</v>
-      </c>
       <c r="Q97" s="1" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="R97" s="0" t="s">
         <v>559</v>
@@ -21791,64 +22134,64 @@
         <v>86</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1411</v>
+        <v>1416</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1413</v>
+        <v>1418</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>1418</v>
+        <v>1423</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>1419</v>
+        <v>1424</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>1421</v>
+        <v>1426</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="W98" s="0" t="s">
-        <v>1424</v>
+        <v>1429</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="AB98" s="0" t="s">
         <v>52</v>
@@ -21880,49 +22223,49 @@
         <v>53</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>1431</v>
+        <v>1436</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>1432</v>
+        <v>1437</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1433</v>
+        <v>1438</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>1435</v>
+        <v>1440</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>1436</v>
+        <v>1441</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
       <c r="W99" s="0" t="s">
         <v>743</v>
@@ -21969,64 +22312,64 @@
         <v>72</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="M100" s="0" t="s">
         <v>1442</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="N100" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="O100" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="P100" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="H100" s="0" t="s">
-        <v>1446</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>1448</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>1449</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>1450</v>
-      </c>
-      <c r="M100" s="0" t="s">
-        <v>1437</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>1440</v>
-      </c>
       <c r="Q100" s="1" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
       <c r="R100" s="0" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="W100" s="0" t="s">
         <v>743</v>
@@ -22073,64 +22416,64 @@
         <v>86</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1452</v>
+        <v>1457</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1453</v>
+        <v>1458</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>1456</v>
+        <v>1461</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>1458</v>
+        <v>1463</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>1460</v>
+        <v>1465</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>1461</v>
+        <v>1466</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>1462</v>
+        <v>1467</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="W101" s="0" t="s">
-        <v>1465</v>
+        <v>1470</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
       <c r="AB101" s="0" t="s">
         <v>52</v>
@@ -22162,49 +22505,49 @@
         <v>53</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1470</v>
+        <v>1475</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1471</v>
+        <v>1476</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1470</v>
+        <v>1475</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>1475</v>
+        <v>1480</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>1479</v>
+        <v>1484</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>1481</v>
+        <v>1486</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="W102" s="0" t="s">
         <v>780</v>
@@ -22251,49 +22594,49 @@
         <v>72</v>
       </c>
       <c r="C103" s="0" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="M103" s="0" t="s">
         <v>1483</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="N103" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="O103" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="P103" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="Q103" s="1" t="s">
         <v>1487</v>
-      </c>
-      <c r="H103" s="0" t="s">
-        <v>1488</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>1490</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>1491</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>1492</v>
-      </c>
-      <c r="M103" s="0" t="s">
-        <v>1478</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="O103" s="1" t="s">
-        <v>1480</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>1481</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>1482</v>
       </c>
       <c r="R103" s="0" t="s">
         <v>523</v>
@@ -22355,49 +22698,49 @@
         <v>86</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1495</v>
+        <v>1500</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1501</v>
+        <v>1506</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>1503</v>
+        <v>1508</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="W104" s="0" t="s">
         <v>577</v>
@@ -22444,49 +22787,49 @@
         <v>53</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>1516</v>
+        <v>1521</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>1517</v>
+        <v>1522</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>1518</v>
+        <v>1523</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="W105" s="0" t="s">
         <v>545</v>
@@ -22533,49 +22876,49 @@
         <v>72</v>
       </c>
       <c r="C106" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="L106" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M106" s="0" t="s">
         <v>1523</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="N106" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="O106" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="P106" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="Q106" s="1" t="s">
         <v>1527</v>
-      </c>
-      <c r="H106" s="0" t="s">
-        <v>1528</v>
-      </c>
-      <c r="I106" s="0" t="s">
-        <v>1529</v>
-      </c>
-      <c r="J106" s="0" t="s">
-        <v>1530</v>
-      </c>
-      <c r="K106" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="L106" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="M106" s="0" t="s">
-        <v>1518</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>1519</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>1521</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>1522</v>
       </c>
       <c r="R106" s="0" t="s">
         <v>490</v>
@@ -22637,64 +22980,64 @@
         <v>86</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>1533</v>
+        <v>1538</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1535</v>
+        <v>1540</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1536</v>
+        <v>1541</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>1537</v>
+        <v>1542</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>1538</v>
+        <v>1543</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>1539</v>
+        <v>1544</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>1540</v>
+        <v>1545</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>1541</v>
+        <v>1546</v>
       </c>
       <c r="L107" s="0" t="s">
-        <v>1542</v>
+        <v>1547</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>1543</v>
+        <v>1548</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>1544</v>
+        <v>1549</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>1545</v>
+        <v>1550</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>1546</v>
+        <v>1551</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>1547</v>
+        <v>1552</v>
       </c>
       <c r="W107" s="0" t="s">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="X107" s="1" t="s">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="Y107" s="1" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="Z107" s="1" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="AA107" s="1" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="AB107" s="0" t="s">
         <v>52</v>
@@ -22726,49 +23069,49 @@
         <v>53</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>1548</v>
+        <v>1553</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1549</v>
+        <v>1554</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1550</v>
+        <v>1555</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>1552</v>
+        <v>1557</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>1553</v>
+        <v>1558</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>1554</v>
+        <v>1559</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>1556</v>
+        <v>1561</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>1558</v>
+        <v>1563</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="W108" s="0" t="s">
         <v>703</v>
@@ -22815,49 +23158,49 @@
         <v>72</v>
       </c>
       <c r="C109" s="0" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="M109" s="0" t="s">
         <v>1563</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="N109" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="O109" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="P109" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="Q109" s="1" t="s">
         <v>1567</v>
-      </c>
-      <c r="H109" s="0" t="s">
-        <v>1568</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>1569</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>1570</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>1572</v>
-      </c>
-      <c r="M109" s="0" t="s">
-        <v>1558</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>1559</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>1560</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>1561</v>
-      </c>
-      <c r="Q109" s="1" t="s">
-        <v>1562</v>
       </c>
       <c r="R109" s="0" t="s">
         <v>289</v>
@@ -22919,49 +23262,49 @@
         <v>86</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>1573</v>
+        <v>1578</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1574</v>
+        <v>1579</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1576</v>
+        <v>1581</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>1578</v>
+        <v>1583</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>1580</v>
+        <v>1585</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>1582</v>
+        <v>1587</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>1583</v>
+        <v>1588</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>1586</v>
+        <v>1591</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>1586</v>
+        <v>1591</v>
       </c>
       <c r="W110" s="0" t="s">
         <v>982</v>
@@ -23008,49 +23351,49 @@
         <v>53</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1588</v>
+        <v>1593</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1589</v>
+        <v>1594</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1590</v>
+        <v>1595</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1590</v>
+        <v>1595</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>1592</v>
+        <v>1597</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>1593</v>
+        <v>1598</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>1594</v>
+        <v>1599</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="W111" s="0" t="s">
         <v>664</v>
@@ -23097,64 +23440,64 @@
         <v>72</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>1600</v>
+        <v>1605</v>
       </c>
       <c r="D112" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M112" s="0" t="s">
         <v>1601</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="N112" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="O112" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="P112" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="H112" s="0" t="s">
-        <v>1605</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="M112" s="0" t="s">
-        <v>1596</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>1598</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>1599</v>
-      </c>
       <c r="Q112" s="1" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="R112" s="0" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="W112" s="0" t="s">
         <v>664</v>
@@ -23201,49 +23544,49 @@
         <v>86</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1611</v>
+        <v>1616</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1612</v>
+        <v>1617</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1613</v>
+        <v>1618</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>1620</v>
+        <v>1625</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>1622</v>
+        <v>1627</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>1623</v>
+        <v>1628</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>1623</v>
+        <v>1628</v>
       </c>
       <c r="W113" s="0" t="s">
         <v>1033</v>
@@ -23290,64 +23633,64 @@
         <v>86</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1625</v>
+        <v>1630</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>1630</v>
+        <v>1635</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>1633</v>
+        <v>1638</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="W114" s="0" t="s">
-        <v>1424</v>
+        <v>1429</v>
       </c>
       <c r="X114" s="1" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="Y114" s="1" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="Z114" s="1" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="AA114" s="1" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="AB114" s="0" t="s">
         <v>52</v>
@@ -23379,49 +23722,49 @@
         <v>53</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>1643</v>
+        <v>1648</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>1644</v>
+        <v>1649</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>1645</v>
+        <v>1650</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>1647</v>
+        <v>1652</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>1648</v>
+        <v>1653</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>1649</v>
+        <v>1654</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>1650</v>
+        <v>1655</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>1653</v>
+        <v>1658</v>
       </c>
       <c r="W115" s="0" t="s">
         <v>743</v>
@@ -23468,64 +23811,64 @@
         <v>72</v>
       </c>
       <c r="C116" s="0" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="M116" s="0" t="s">
         <v>1654</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="N116" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="O116" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="P116" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="Q116" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="H116" s="0" t="s">
-        <v>1659</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="M116" s="0" t="s">
-        <v>1649</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="Q116" s="1" t="s">
-        <v>1653</v>
-      </c>
       <c r="R116" s="0" t="s">
-        <v>1558</v>
+        <v>1563</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="T116" s="1" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="U116" s="1" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="V116" s="1" t="s">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="W116" s="0" t="s">
         <v>743</v>
@@ -23572,49 +23915,49 @@
         <v>86</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>1664</v>
+        <v>1669</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1665</v>
+        <v>1670</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1666</v>
+        <v>1671</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1667</v>
+        <v>1672</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>1668</v>
+        <v>1673</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>1669</v>
+        <v>1674</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>1670</v>
+        <v>1675</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>1671</v>
+        <v>1676</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>1672</v>
+        <v>1677</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>1673</v>
+        <v>1678</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>1674</v>
+        <v>1679</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>1675</v>
+        <v>1680</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>1676</v>
+        <v>1681</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>1677</v>
+        <v>1682</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>1678</v>
+        <v>1683</v>
       </c>
       <c r="W117" s="0" t="s">
         <v>509</v>
@@ -23661,49 +24004,49 @@
         <v>53</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>1679</v>
+        <v>1684</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1681</v>
+        <v>1686</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>1683</v>
+        <v>1688</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>1684</v>
+        <v>1689</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>1685</v>
+        <v>1690</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>1686</v>
+        <v>1691</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>1688</v>
+        <v>1693</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>1689</v>
+        <v>1694</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1690</v>
+        <v>1695</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>1691</v>
+        <v>1696</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>1692</v>
+        <v>1697</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="W118" s="0" t="s">
         <v>475</v>
@@ -23750,64 +24093,64 @@
         <v>72</v>
       </c>
       <c r="C119" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="M119" s="0" t="s">
         <v>1694</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="N119" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="O119" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="P119" s="1" t="s">
         <v>1697</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="Q119" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="H119" s="0" t="s">
-        <v>1699</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>1703</v>
-      </c>
-      <c r="M119" s="0" t="s">
-        <v>1689</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="Q119" s="1" t="s">
-        <v>1693</v>
-      </c>
       <c r="R119" s="0" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="S119" s="1" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="W119" s="0" t="s">
         <v>475</v>
@@ -23854,64 +24197,64 @@
         <v>86</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>1704</v>
+        <v>1709</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1705</v>
+        <v>1710</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1706</v>
+        <v>1711</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1707</v>
+        <v>1712</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1708</v>
+        <v>1713</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>1709</v>
+        <v>1714</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>1710</v>
+        <v>1715</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1712</v>
+        <v>1717</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>1713</v>
+        <v>1718</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>1714</v>
+        <v>1719</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>1715</v>
+        <v>1720</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>1716</v>
+        <v>1721</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>1717</v>
+        <v>1722</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>1717</v>
+        <v>1722</v>
       </c>
       <c r="W120" s="0" t="s">
-        <v>1465</v>
+        <v>1470</v>
       </c>
       <c r="X120" s="1" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="Y120" s="1" t="s">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="Z120" s="1" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
       <c r="AA120" s="1" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
       <c r="AB120" s="0" t="s">
         <v>52</v>
@@ -23943,49 +24286,49 @@
         <v>53</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>1718</v>
+        <v>1723</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>1719</v>
+        <v>1724</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>1720</v>
+        <v>1725</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>1724</v>
+        <v>1729</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>1725</v>
+        <v>1730</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>1726</v>
+        <v>1731</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>1727</v>
+        <v>1732</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>1728</v>
+        <v>1733</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>1731</v>
+        <v>1736</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>1732</v>
+        <v>1737</v>
       </c>
       <c r="W121" s="0" t="s">
         <v>780</v>
@@ -24032,64 +24375,64 @@
         <v>72</v>
       </c>
       <c r="C122" s="0" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="M122" s="0" t="s">
         <v>1733</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="N122" s="1" t="s">
         <v>1734</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="O122" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="P122" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="Q122" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="H122" s="0" t="s">
-        <v>1738</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>1739</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>1740</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>1742</v>
-      </c>
-      <c r="M122" s="0" t="s">
-        <v>1728</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>1729</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>1730</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>1731</v>
-      </c>
-      <c r="Q122" s="1" t="s">
-        <v>1732</v>
-      </c>
       <c r="R122" s="0" t="s">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="S122" s="1" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="T122" s="1" t="s">
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="U122" s="1" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="W122" s="0" t="s">
         <v>780</v>
@@ -24136,49 +24479,49 @@
         <v>86</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>1743</v>
+        <v>1748</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1745</v>
+        <v>1750</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1746</v>
+        <v>1751</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1747</v>
+        <v>1752</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>1748</v>
+        <v>1753</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>1749</v>
+        <v>1754</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>1750</v>
+        <v>1755</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>1751</v>
+        <v>1756</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
       <c r="W123" s="0" t="s">
         <v>982</v>
@@ -24225,49 +24568,49 @@
         <v>53</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
       <c r="M124" s="0" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>1768</v>
+        <v>1773</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>1770</v>
+        <v>1775</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>1771</v>
+        <v>1776</v>
       </c>
       <c r="W124" s="0" t="s">
         <v>616</v>
@@ -24314,49 +24657,49 @@
         <v>72</v>
       </c>
       <c r="C125" s="0" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>1782</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="M125" s="0" t="s">
         <v>1772</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="N125" s="1" t="s">
         <v>1773</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="O125" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="P125" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="Q125" s="1" t="s">
         <v>1776</v>
-      </c>
-      <c r="H125" s="0" t="s">
-        <v>1777</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>1780</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>1781</v>
-      </c>
-      <c r="M125" s="0" t="s">
-        <v>1767</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>1769</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="Q125" s="1" t="s">
-        <v>1771</v>
       </c>
       <c r="R125" s="0" t="s">
         <v>251</v>
@@ -24418,49 +24761,49 @@
         <v>86</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>1782</v>
+        <v>1787</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1783</v>
+        <v>1788</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1784</v>
+        <v>1789</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1785</v>
+        <v>1790</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1786</v>
+        <v>1791</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>1787</v>
+        <v>1792</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>1788</v>
+        <v>1793</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>1789</v>
+        <v>1794</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>1790</v>
+        <v>1795</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>1791</v>
+        <v>1796</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>1792</v>
+        <v>1797</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>1793</v>
+        <v>1798</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>1794</v>
+        <v>1799</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>1795</v>
+        <v>1800</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>1796</v>
+        <v>1801</v>
       </c>
       <c r="W126" s="0" t="s">
         <v>307</v>
@@ -24507,49 +24850,49 @@
         <v>53</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>1797</v>
+        <v>1802</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1798</v>
+        <v>1803</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1799</v>
+        <v>1804</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1800</v>
+        <v>1805</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1801</v>
+        <v>1806</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>1802</v>
+        <v>1807</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>1803</v>
+        <v>1808</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>1804</v>
+        <v>1809</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>1805</v>
+        <v>1810</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>1806</v>
+        <v>1811</v>
       </c>
       <c r="M127" s="0" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>1809</v>
+        <v>1814</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>1810</v>
+        <v>1815</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>1810</v>
+        <v>1815</v>
       </c>
       <c r="W127" s="0" t="s">
         <v>274</v>
@@ -24596,64 +24939,64 @@
         <v>72</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
       <c r="D128" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>1821</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="M128" s="0" t="s">
         <v>1812</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="N128" s="1" t="s">
         <v>1813</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="O128" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="P128" s="1" t="s">
         <v>1815</v>
       </c>
-      <c r="H128" s="0" t="s">
-        <v>1816</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>1817</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>1818</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>1819</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="M128" s="0" t="s">
-        <v>1807</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="O128" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="P128" s="1" t="s">
-        <v>1810</v>
-      </c>
       <c r="Q128" s="1" t="s">
-        <v>1810</v>
+        <v>1815</v>
       </c>
       <c r="R128" s="0" t="s">
-        <v>1728</v>
+        <v>1733</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>1731</v>
+        <v>1736</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>1732</v>
+        <v>1737</v>
       </c>
       <c r="W128" s="0" t="s">
         <v>274</v>
@@ -24700,49 +25043,49 @@
         <v>86</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>1821</v>
+        <v>1826</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1822</v>
+        <v>1827</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1825</v>
+        <v>1830</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>1828</v>
+        <v>1833</v>
       </c>
       <c r="K129" s="0" t="s">
-        <v>1829</v>
+        <v>1834</v>
       </c>
       <c r="L129" s="0" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="M129" s="0" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="W129" s="0" t="s">
         <v>577</v>
@@ -24789,49 +25132,49 @@
         <v>53</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>1835</v>
+        <v>1840</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1836</v>
+        <v>1841</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1837</v>
+        <v>1842</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1838</v>
+        <v>1843</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1839</v>
+        <v>1844</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>1840</v>
+        <v>1845</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1841</v>
+        <v>1846</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>1842</v>
+        <v>1847</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1843</v>
+        <v>1848</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>1844</v>
+        <v>1849</v>
       </c>
       <c r="M130" s="0" t="s">
-        <v>1845</v>
+        <v>1850</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>1846</v>
+        <v>1851</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>1848</v>
+        <v>1853</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="W130" s="0" t="s">
         <v>545</v>
@@ -24878,64 +25221,64 @@
         <v>72</v>
       </c>
       <c r="C131" s="0" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>1860</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="M131" s="0" t="s">
         <v>1850</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="N131" s="1" t="s">
         <v>1851</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="O131" s="1" t="s">
         <v>1852</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="P131" s="1" t="s">
         <v>1853</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="Q131" s="1" t="s">
         <v>1854</v>
       </c>
-      <c r="H131" s="0" t="s">
-        <v>1855</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>1856</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="M131" s="0" t="s">
-        <v>1845</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>1846</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="P131" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="Q131" s="1" t="s">
-        <v>1849</v>
-      </c>
       <c r="R131" s="0" t="s">
-        <v>1297</v>
+        <v>1302</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="W131" s="0" t="s">
         <v>545</v>
@@ -24982,64 +25325,64 @@
         <v>86</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1862</v>
+        <v>1867</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1863</v>
+        <v>1868</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1864</v>
+        <v>1869</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>1865</v>
+        <v>1870</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>1866</v>
+        <v>1871</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>1867</v>
+        <v>1872</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>1868</v>
+        <v>1873</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>1869</v>
+        <v>1874</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>1871</v>
+        <v>1876</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>1872</v>
+        <v>1877</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>1871</v>
+        <v>1876</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>1871</v>
+        <v>1876</v>
       </c>
       <c r="W132" s="0" t="s">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="X132" s="1" t="s">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="Y132" s="1" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="AA132" s="1" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="AB132" s="0" t="s">
         <v>52</v>
@@ -25071,49 +25414,49 @@
         <v>53</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>1873</v>
+        <v>1878</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1874</v>
+        <v>1879</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1875</v>
+        <v>1880</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1877</v>
+        <v>1882</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>1878</v>
+        <v>1883</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>1879</v>
+        <v>1884</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>1882</v>
+        <v>1887</v>
       </c>
       <c r="M133" s="0" t="s">
-        <v>1883</v>
+        <v>1888</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>1884</v>
+        <v>1889</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>1885</v>
+        <v>1890</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>1886</v>
+        <v>1891</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>1884</v>
+        <v>1889</v>
       </c>
       <c r="W133" s="0" t="s">
         <v>743</v>
@@ -25160,64 +25503,64 @@
         <v>72</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>1887</v>
+        <v>1892</v>
       </c>
       <c r="D134" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H134" s="0" t="s">
+        <v>1897</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="M134" s="0" t="s">
         <v>1888</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="N134" s="1" t="s">
         <v>1889</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="O134" s="1" t="s">
         <v>1890</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="P134" s="1" t="s">
         <v>1891</v>
       </c>
-      <c r="H134" s="0" t="s">
-        <v>1892</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>1893</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>1895</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>1896</v>
-      </c>
-      <c r="M134" s="0" t="s">
-        <v>1883</v>
-      </c>
-      <c r="N134" s="1" t="s">
-        <v>1884</v>
-      </c>
-      <c r="O134" s="1" t="s">
-        <v>1885</v>
-      </c>
-      <c r="P134" s="1" t="s">
-        <v>1886</v>
-      </c>
       <c r="Q134" s="1" t="s">
-        <v>1884</v>
+        <v>1889</v>
       </c>
       <c r="R134" s="0" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="W134" s="0" t="s">
         <v>743</v>
@@ -25264,64 +25607,64 @@
         <v>86</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>1897</v>
+        <v>1902</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1901</v>
+        <v>1906</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>1902</v>
+        <v>1907</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>1903</v>
+        <v>1908</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>1904</v>
+        <v>1909</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>1905</v>
+        <v>1910</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>1906</v>
+        <v>1911</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>1908</v>
+        <v>1913</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1909</v>
+        <v>1914</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>1908</v>
+        <v>1913</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>1908</v>
+        <v>1913</v>
       </c>
       <c r="W135" s="0" t="s">
-        <v>1424</v>
+        <v>1429</v>
       </c>
       <c r="X135" s="1" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="Y135" s="1" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="Z135" s="1" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="AA135" s="1" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="AB135" s="0" t="s">
         <v>52</v>
@@ -25353,49 +25696,49 @@
         <v>86</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>1910</v>
+        <v>1915</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1911</v>
+        <v>1916</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1912</v>
+        <v>1917</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1913</v>
+        <v>1918</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1914</v>
+        <v>1919</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>1915</v>
+        <v>1920</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>1917</v>
+        <v>1922</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1918</v>
+        <v>1923</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>1919</v>
+        <v>1924</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>1920</v>
+        <v>1925</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>1921</v>
+        <v>1926</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>1922</v>
+        <v>1927</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>1923</v>
+        <v>1928</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>1924</v>
+        <v>1929</v>
       </c>
       <c r="W136" s="0" t="s">
         <v>377</v>
@@ -25442,49 +25785,49 @@
         <v>53</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>1925</v>
+        <v>1930</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1926</v>
+        <v>1931</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1927</v>
+        <v>1932</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1928</v>
+        <v>1933</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1929</v>
+        <v>1934</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>1930</v>
+        <v>1935</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>1931</v>
+        <v>1936</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>1932</v>
+        <v>1937</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1933</v>
+        <v>1938</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>1934</v>
+        <v>1939</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>1935</v>
+        <v>1940</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>1936</v>
+        <v>1941</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1937</v>
+        <v>1942</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>1938</v>
+        <v>1943</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>1939</v>
+        <v>1944</v>
       </c>
       <c r="W137" s="0" t="s">
         <v>345</v>
@@ -25531,64 +25874,64 @@
         <v>72</v>
       </c>
       <c r="C138" s="0" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H138" s="0" t="s">
+        <v>1950</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="M138" s="0" t="s">
         <v>1940</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="N138" s="1" t="s">
         <v>1941</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="O138" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="P138" s="1" t="s">
         <v>1943</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="Q138" s="1" t="s">
         <v>1944</v>
       </c>
-      <c r="H138" s="0" t="s">
-        <v>1945</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>1946</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>1947</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>1948</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>1949</v>
-      </c>
-      <c r="M138" s="0" t="s">
-        <v>1935</v>
-      </c>
-      <c r="N138" s="1" t="s">
-        <v>1936</v>
-      </c>
-      <c r="O138" s="1" t="s">
-        <v>1937</v>
-      </c>
-      <c r="P138" s="1" t="s">
-        <v>1938</v>
-      </c>
-      <c r="Q138" s="1" t="s">
-        <v>1939</v>
-      </c>
       <c r="R138" s="0" t="s">
-        <v>1845</v>
+        <v>1850</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>1846</v>
+        <v>1851</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>1848</v>
+        <v>1853</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="W138" s="0" t="s">
         <v>345</v>
@@ -25635,49 +25978,49 @@
         <v>86</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>1950</v>
+        <v>1955</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1951</v>
+        <v>1956</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1952</v>
+        <v>1957</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1953</v>
+        <v>1958</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1954</v>
+        <v>1959</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1956</v>
+        <v>1961</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1957</v>
+        <v>1962</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1958</v>
+        <v>1963</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>1961</v>
+        <v>1966</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>1962</v>
+        <v>1967</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>1963</v>
+        <v>1968</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>1964</v>
+        <v>1969</v>
       </c>
       <c r="W139" s="0" t="s">
         <v>101</v>
@@ -25724,49 +26067,49 @@
         <v>53</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>1972</v>
+        <v>1977</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1973</v>
+        <v>1978</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="M140" s="0" t="s">
-        <v>1975</v>
+        <v>1980</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1976</v>
+        <v>1981</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>1978</v>
+        <v>1983</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>1978</v>
+        <v>1983</v>
       </c>
       <c r="W140" s="0" t="s">
         <v>67</v>
@@ -25813,64 +26156,64 @@
         <v>72</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>1979</v>
+        <v>1984</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="H141" s="0" t="s">
+        <v>1989</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="M141" s="0" t="s">
         <v>1980</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="N141" s="1" t="s">
         <v>1981</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="O141" s="1" t="s">
         <v>1982</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="P141" s="1" t="s">
         <v>1983</v>
       </c>
-      <c r="H141" s="0" t="s">
-        <v>1984</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>1985</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>1986</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>1987</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>1988</v>
-      </c>
-      <c r="M141" s="0" t="s">
-        <v>1975</v>
-      </c>
-      <c r="N141" s="1" t="s">
-        <v>1976</v>
-      </c>
-      <c r="O141" s="1" t="s">
-        <v>1977</v>
-      </c>
-      <c r="P141" s="1" t="s">
-        <v>1978</v>
-      </c>
       <c r="Q141" s="1" t="s">
-        <v>1978</v>
+        <v>1983</v>
       </c>
       <c r="R141" s="0" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="W141" s="0" t="s">
         <v>67</v>
@@ -25911,90 +26254,372 @@
     </row>
     <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
+        <v>1044001</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H142" s="0" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="M142" s="0" t="s">
+        <v>2004</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="W142" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="X142" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y142" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z142" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA142" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB142" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC142" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD142" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE142" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH142" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>1044002</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>2013</v>
+      </c>
+      <c r="H143" s="0" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="M143" s="0" t="s">
+        <v>2019</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="W143" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="X143" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y143" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z143" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA143" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB143" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC143" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD143" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE143" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF143" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG143" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH143" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>1044003</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H144" s="0" t="s">
+        <v>2029</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="M144" s="0" t="s">
+        <v>2019</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="R144" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="T144" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="U144" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V144" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="W144" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="X144" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y144" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z144" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA144" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB144" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC144" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD144" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE144" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF144" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG144" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH144" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
         <v>1099001</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B145" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C145" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F145" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="H142" s="0" t="s">
+      <c r="H145" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="I142" s="1" t="s">
+      <c r="I145" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="J142" s="1" t="s">
+      <c r="J145" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="K142" s="1" t="s">
+      <c r="K145" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="L142" s="1" t="s">
+      <c r="L145" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="M142" s="0" t="s">
+      <c r="M145" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="N142" s="1" t="s">
+      <c r="N145" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="O142" s="1" t="s">
+      <c r="O145" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P142" s="1" t="s">
+      <c r="P145" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="Q142" s="1" t="s">
+      <c r="Q145" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="W142" s="0" t="s">
+      <c r="W145" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="X142" s="1" t="s">
+      <c r="X145" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Y142" s="1" t="s">
+      <c r="Y145" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="Z142" s="1" t="s">
+      <c r="Z145" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AA142" s="1" t="s">
+      <c r="AA145" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AB142" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC142" s="0" t="s">
+      <c r="AB145" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC145" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="AD142" s="1" t="s">
+      <c r="AD145" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AE142" s="1" t="s">
+      <c r="AE145" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AF142" s="1" t="s">
+      <c r="AF145" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AG142" s="1" t="s">
+      <c r="AG145" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AH142" s="0" t="s">
+      <c r="AH145" s="0" t="s">
         <v>52</v>
       </c>
     </row>
